--- a/Top 10 african leader.xlsx
+++ b/Top 10 african leader.xlsx
@@ -417,7 +417,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>

--- a/Top 10 african leader.xlsx
+++ b/Top 10 african leader.xlsx
@@ -417,7 +417,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
